--- a/src/test/resources/InviteForm_TestCases.xlsx
+++ b/src/test/resources/InviteForm_TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>TestCase</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
@@ -69,45 +66,15 @@
     <t>StudentRegistrationTest</t>
   </si>
   <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>middleName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>mobileNumber</t>
-  </si>
-  <si>
-    <t>emailId</t>
-  </si>
-  <si>
     <t>primaryAddress</t>
   </si>
   <si>
-    <t>address1</t>
-  </si>
-  <si>
     <t>Address1</t>
   </si>
   <si>
-    <t>address2</t>
-  </si>
-  <si>
     <t>Address2</t>
   </si>
   <si>
-    <t>postalCode</t>
-  </si>
-  <si>
-    <t>fatherName</t>
-  </si>
-  <si>
     <t>FatherName</t>
   </si>
   <si>
@@ -210,9 +177,6 @@
     <t>OtherQualification</t>
   </si>
   <si>
-    <t>first Name</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
@@ -220,6 +184,84 @@
   </si>
   <si>
     <t>naman.goel@yoctel.com</t>
+  </si>
+  <si>
+    <t>C:\Users\Naman Goel\Desktop\Error.png</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>ProfilePicturePath</t>
+  </si>
+  <si>
+    <t>PrimaryAddress</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>MotherName</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>fatheremail@gmail.com</t>
+  </si>
+  <si>
+    <t>motheremaild@gmail.com</t>
+  </si>
+  <si>
+    <t>husbandemail@gmail.com</t>
+  </si>
+  <si>
+    <t>guardianemail@gmail.com</t>
+  </si>
+  <si>
+    <t>primaryemail@gmail.com</t>
+  </si>
+  <si>
+    <t>9281919119</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9450101010</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -291,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,6 +351,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,28 +702,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:48">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:48">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -682,293 +738,299 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="O2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="T2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="V2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F3" s="9">
         <v>36892</v>
       </c>
-      <c r="G3" s="8">
-        <v>9450101010</v>
+      <c r="G3" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8">
-        <v>123456</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>36892</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="8">
         <v>12345678</v>
@@ -1004,7 +1066,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="4"/>
+      <c r="AB4" s="8"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -1021,25 +1083,26 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AS4" s="4"/>
       <c r="AT4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="8">
         <v>1234567</v>
@@ -1075,7 +1138,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="4"/>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -1092,14 +1155,15 @@
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
-      <c r="AS5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="AS5" s="4"/>
       <c r="AT5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1108,9 +1172,14 @@
     <hyperlink ref="C4" r:id="rId2" display="amotooricap1@gmail.com"/>
     <hyperlink ref="C5" r:id="rId3" display="amotooricap3@gmail.com"/>
     <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="V3" r:id="rId5"/>
+    <hyperlink ref="W3" r:id="rId6"/>
+    <hyperlink ref="X3" r:id="rId7"/>
+    <hyperlink ref="Y3" r:id="rId8"/>
+    <hyperlink ref="Z3" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
